--- a/matrix_multiplication/matrix_multiplication/DataStructure_20190422.xlsx
+++ b/matrix_multiplication/matrix_multiplication/DataStructure_20190422.xlsx
@@ -722,16 +722,23 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="3600"/>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="3600">
+                <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Matrix Summation</a:t>
             </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="3600"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="3600">
+              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -739,8 +746,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.28430303102007226"/>
-          <c:y val="7.2864290975226858E-3"/>
+          <c:x val="0.27650711291922431"/>
+          <c:y val="2.952900531485984E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -763,9 +770,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ko-KR"/>
@@ -779,8 +786,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.8102997130574969E-2"/>
-          <c:y val="0.1223950424779532"/>
+          <c:x val="7.7194813806505294E-2"/>
+          <c:y val="0.12239506910581786"/>
           <c:w val="0.93334989341054519"/>
           <c:h val="0.73516738057319198"/>
         </c:manualLayout>
@@ -805,7 +812,10 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -814,6 +824,1488 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DataStructure_20190422!$A$2:$A$492</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="491"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>DataStructure_20190422!$B$2:$B$492</c:f>
@@ -2320,7 +3812,10 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2329,6 +3824,1488 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DataStructure_20190422!$A$2:$A$492</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="491"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>DataStructure_20190422!$C$2:$C$492</c:f>
@@ -3835,7 +6812,10 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3844,6 +6824,1488 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DataStructure_20190422!$A$2:$A$492</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="491"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>DataStructure_20190422!$D$2:$D$492</c:f>
@@ -5352,18 +9814,28 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:noFill/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -5373,7 +9845,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5392,34 +9864,31 @@
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="50"/>
+        <c:tickMarkSkip val="50"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="259180544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
@@ -5432,7 +9901,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5450,10 +9919,11 @@
         <c:crossAx val="191673248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -5465,10 +9935,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12755550472524682"/>
-          <c:y val="0.14589367407429718"/>
-          <c:w val="0.64805712099760615"/>
-          <c:h val="0.29851610723959804"/>
+          <c:x val="0.12244557393611849"/>
+          <c:y val="0.16705073161082412"/>
+          <c:w val="0.50811539522944438"/>
+          <c:h val="0.21778042050860971"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5484,16 +9954,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ko-KR"/>
@@ -5558,7 +10028,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5571,14 +10041,21 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="4000"/>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="3600"/>
               <a:t>Matrix Multiplication</a:t>
             </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="4000"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="3600"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25900900843157615"/>
+          <c:y val="1.640537671510104E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5592,7 +10069,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5641,7 +10118,10 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5650,6 +10130,1488 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DataStructure_20190422!$A$2:$A$492</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="491"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>DataStructure_20190422!$E$2:$E$492</c:f>
@@ -7165,6 +13127,1488 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DataStructure_20190422!$A$2:$A$492</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="491"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>DataStructure_20190422!$F$2:$F$492</c:f>
@@ -8671,7 +16115,10 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -8680,6 +16127,1488 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DataStructure_20190422!$A$2:$A$492</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="491"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>DataStructure_20190422!$G$2:$G$492</c:f>
@@ -10188,6 +19117,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10209,7 +19139,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -10242,12 +19172,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -10269,7 +19194,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -10302,10 +19227,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21290045739347241"/>
-          <c:y val="0.13930190982491134"/>
+          <c:x val="9.2411607152700317E-2"/>
+          <c:y val="0.16664087927078028"/>
           <c:w val="0.60393218551902383"/>
-          <c:h val="0.50302884724513253"/>
+          <c:h val="0.21484484216678426"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -10321,16 +19246,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ko-KR"/>
@@ -11490,16 +20415,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1815937</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>168483</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>159824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>612322</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>235959</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>65871</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11520,16 +20445,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>166006</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>29688</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>178995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1728107</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>234414</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>73911</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11817,7 +20742,7 @@
   <dimension ref="A1:G492"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
